--- a/book_club_books.xlsx
+++ b/book_club_books.xlsx
@@ -13,10 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>Wishlist</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -24,16 +21,13 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t>Carpenter's Gothic</t>
   </si>
   <si>
     <t>William Gaddis</t>
   </si>
   <si>
-    <t>The Cannibal</t>
+    <t>The Lime Twig</t>
   </si>
   <si>
     <t>John Hawkes</t>
@@ -45,25 +39,16 @@
     <t>Sarah J. Maas</t>
   </si>
   <si>
-    <t>Hopefully</t>
-  </si>
-  <si>
     <t>Hummingbird Salamander</t>
   </si>
   <si>
     <t>Jeff VandaMeer</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>The Vegetarian</t>
   </si>
   <si>
     <t>Han Kang</t>
-  </si>
-  <si>
-    <t>Maybe</t>
   </si>
   <si>
     <t>Roadside Picnic</t>
@@ -116,12 +101,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,8 +116,41 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -159,50 +177,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -224,36 +198,35 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -485,165 +458,115 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C4 C6:C21">
-      <formula1>"Yes,No,Maybe"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Yes,No,Maybe,Hopefully"</formula1>
-    </dataValidation>
-  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -665,146 +588,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
         <v>45340.0</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -825,12 +748,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
+      <c r="A3" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="str">
+      <c r="A4" s="13" t="str">
         <f t="array" ref="A4">IF(#REF!&lt;&gt;"", INDEX($A$3:$A$100, RANDBETWEEN(1, COUNTA($A$3:$A$100))), "")</f>
         <v>#REF!</v>
       </c>
